--- a/src/data/a3.xlsx
+++ b/src/data/a3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="G" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -64,7 +64,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Zhong Min Kitchen 
+      <t xml:space="preserve">Print Area
 </t>
     </r>
     <r>
@@ -72,28 +72,12 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">中闽美食</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhongmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bean's Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad Plate Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mad</t>
+      </rPr>
+      <t xml:space="preserve">打印区</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">daily_necessity</t>
   </si>
   <si>
     <r>
@@ -103,119 +87,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Xiao Jiu Zho</t>
+      <t xml:space="preserve">MINI CINEMA
+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">小九州</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Castle imn the sky 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="LXGW WenKai Mono"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">膳一城</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">castle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Penang Flavour
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="LXGW WenKai Mono"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">槟城风味</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">penang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kami Cemerlang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kami</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Takwa Muslim Stir Fry 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="LXGW WenKai Mono"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">中国穆斯林小炒</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">takwa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Uni Hotpot 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="LXGW WenKai Mono"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">有你香锅</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">hotpot</t>
+      </rPr>
+      <t xml:space="preserve">小影院</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">entertainment</t>
   </si>
   <si>
     <r>
@@ -255,6 +140,9 @@
       </rPr>
       <t xml:space="preserve">园</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">shiyuan</t>
@@ -488,7 +376,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -514,7 +402,6 @@
       <sz val="10"/>
       <name val="LXGW WenKai Mono"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -532,6 +419,12 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="LXGW WenKai Mono"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -639,7 +532,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,7 +669,7 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
@@ -1462,10 +1355,10 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1507,121 +1400,75 @@
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>9</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2145,7 +1992,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B10 B19 B21:B1010" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B10 B19 B21:B1003" type="list">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2206,13 +2053,13 @@
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>4</v>
@@ -2244,13 +2091,13 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>4</v>
@@ -2289,13 +2136,13 @@
     </row>
     <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>2</v>
@@ -2327,13 +2174,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F15" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -2342,13 +2189,13 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F16" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -2357,13 +2204,13 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>2</v>
@@ -2466,13 +2313,13 @@
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F31" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -2481,13 +2328,13 @@
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -2496,13 +2343,13 @@
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F33" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -2511,13 +2358,13 @@
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F34" s="11" t="n">
         <f aca="false">TRUE()</f>

--- a/src/data/a3.xlsx
+++ b/src/data/a3.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1A_xmumgithub\xmum-map\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210C573-792C-4A8B-B1FB-899B70548658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="G" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="G" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -22,39 +38,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZUS Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Slug</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>ZUS Coffee</t>
+  </si>
+  <si>
+    <t>snack</t>
   </si>
   <si>
     <r>
@@ -73,11 +86,11 @@
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">打印区</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">daily_necessity</t>
+      <t>打印区</t>
+    </r>
+  </si>
+  <si>
+    <t>daily_necessity</t>
   </si>
   <si>
     <r>
@@ -96,11 +109,11 @@
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">小影院</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">entertainment</t>
+      <t>小影院</t>
+    </r>
+  </si>
+  <si>
+    <t>entertainment</t>
   </si>
   <si>
     <r>
@@ -120,7 +133,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">食</t>
+      <t>食</t>
     </r>
     <r>
       <rPr>
@@ -129,7 +142,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -138,14 +151,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">园</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiyuan</t>
+      <t>园</t>
+    </r>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>shiyuan</t>
   </si>
   <si>
     <r>
@@ -169,14 +182,14 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">shaxian-ly3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALATANG AND NOODLES
+    <t>shaxian-ly3</t>
+  </si>
+  <si>
+    <t>MALATANG AND NOODLES
 孙小野 麻辣烫香锅家乡面馆</t>
   </si>
   <si>
-    <t xml:space="preserve">sunxiaoye</t>
+    <t>sunxiaoye</t>
   </si>
   <si>
     <r>
@@ -195,11 +208,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Blissful Moments</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">blissful</t>
+      <t>Blissful Moments</t>
+    </r>
+  </si>
+  <si>
+    <t>blissful</t>
   </si>
   <si>
     <r>
@@ -218,11 +231,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">YU Moments</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">yu</t>
+      <t>YU Moments</t>
+    </r>
+  </si>
+  <si>
+    <t>yu</t>
   </si>
   <si>
     <r>
@@ -232,7 +245,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">兰州拉面</t>
+      <t>兰州拉面</t>
     </r>
     <r>
       <rPr>
@@ -241,11 +254,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Lanzhou Ramen</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">lanzhou</t>
+      <t>Lanzhou Ramen</t>
+    </r>
+  </si>
+  <si>
+    <t>lanzhou</t>
   </si>
   <si>
     <r>
@@ -255,7 +268,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">一口甜</t>
+      <t>一口甜</t>
     </r>
     <r>
       <rPr>
@@ -264,7 +277,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -273,11 +286,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">烘焙</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">yikou</t>
+      <t>烘焙</t>
+    </r>
+  </si>
+  <si>
+    <t>yikou</t>
   </si>
   <si>
     <r>
@@ -287,7 +300,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">天猫咖啡</t>
+      <t>天猫咖啡</t>
     </r>
     <r>
       <rPr>
@@ -296,11 +309,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/Tmall Coffee</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">tmall</t>
+      <t>/Tmall Coffee</t>
+    </r>
+  </si>
+  <si>
+    <t>tmall</t>
   </si>
   <si>
     <r>
@@ -319,11 +332,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">爆汁炸鸡堡</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">boom</t>
+      <t>爆汁炸鸡堡</t>
+    </r>
+  </si>
+  <si>
+    <t>boom</t>
   </si>
   <si>
     <r>
@@ -333,7 +346,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">蒂蒂果（果汁</t>
+      <t>蒂蒂果（果汁</t>
     </r>
     <r>
       <rPr>
@@ -342,7 +355,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&amp;</t>
+      <t>&amp;</t>
     </r>
     <r>
       <rPr>
@@ -351,7 +364,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">切果</t>
+      <t>切果</t>
     </r>
     <r>
       <rPr>
@@ -360,43 +373,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) DEE Fruit &amp; Juice</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">dee</t>
+      <t>) DEE Fruit &amp; Juice</t>
+    </r>
+  </si>
+  <si>
+    <t>dee</t>
+  </si>
+  <si>
+    <t>A3_print</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>minicinema</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_zus</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -433,6 +441,12 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -443,170 +457,140 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -659,31 +643,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="3" width="11.54"/>
+    <col min="1" max="2" width="11.54296875" style="1"/>
+    <col min="3" max="3" width="11.54296875" style="2"/>
+    <col min="4" max="6" width="11.54296875" style="1"/>
+    <col min="11" max="16384" width="11.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="35.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -709,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="35.25" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -717,13 +699,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="35.25" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -731,7 +713,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="35.25" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -739,7 +721,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="35.25" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -747,7 +729,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="35.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -755,7 +737,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -763,7 +745,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="35.25" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -771,7 +753,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="35.25" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -779,7 +761,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="35.25" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -787,7 +769,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="35.25" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -795,7 +777,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="35.25" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -803,7 +785,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="35.25" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -811,7 +793,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="35.25" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -819,7 +801,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="35.25" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -827,7 +809,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -835,7 +817,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="35.25" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -843,7 +825,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="35.25" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -851,7 +833,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="35.25" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -859,7 +841,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="35.25" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -867,7 +849,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="35.25" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -875,7 +857,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="35.25" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -883,7 +865,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="35.25" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -891,7 +873,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="35.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -899,7 +881,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="35.25" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -907,7 +889,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="35.25" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -915,7 +897,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="35.25" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -923,7 +905,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="35.25" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -931,7 +913,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="35.25" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -939,7 +921,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="35.25" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -947,7 +929,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="35.25" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -955,7 +937,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="35.25" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -963,7 +945,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="35.25" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -971,7 +953,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="35.25" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -979,7 +961,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="35.25" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -987,7 +969,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="35.25" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -995,7 +977,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="35.25" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1003,7 +985,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="35.25" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1011,7 +993,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="35.25" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1019,7 +1001,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="35.25" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1027,7 +1009,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="35.25" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1035,7 +1017,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="35.25" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1043,7 +1025,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="35.25" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1051,7 +1033,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="35.25" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1059,7 +1041,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="35.25" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1067,7 +1049,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="35.25" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1075,7 +1057,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="35.25" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1083,7 +1065,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="35.25" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1091,7 +1073,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="35.25" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1099,7 +1081,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="35.25" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1107,7 +1089,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="35.25" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1115,7 +1097,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="35.25" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1123,7 +1105,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="35.25" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1131,7 +1113,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="35.25" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1139,7 +1121,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="35.25" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1147,7 +1129,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="35.25" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1155,7 +1137,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="35.25" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1163,7 +1145,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="35.25" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1171,7 +1153,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="35.25" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1179,7 +1161,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="35.25" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1187,7 +1169,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="35.25" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1195,7 +1177,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="35.25" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1203,7 +1185,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="35.25" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1211,7 +1193,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="35.25" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1219,7 +1201,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="35.25" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1227,7 +1209,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="35.25" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1235,7 +1217,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="35.25" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1243,7 +1225,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="35.25" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1251,7 +1233,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="35.25" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1259,7 +1241,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="35.25" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1267,7 +1249,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="35.25" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1275,7 +1257,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="35.25" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1283,7 +1265,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="35.25" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1291,7 +1273,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="35.25" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1299,7 +1281,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="35.25" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1307,7 +1289,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="35.25" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1315,7 +1297,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="35.25" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1323,7 +1305,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="35.25" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -1332,16 +1314,16 @@
       <c r="F78" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B1002" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1349,25 +1331,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="3" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.54"/>
+    <col min="1" max="6" width="11.54296875" style="3"/>
+    <col min="7" max="16384" width="11.54296875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="35.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1393,31 +1371,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="35.25" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="35.25" customHeight="1">
       <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="35.25" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1425,7 +1407,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="35.25" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1433,7 +1415,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="35.25" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1441,7 +1423,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1449,7 +1431,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="35.25" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1457,7 +1439,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="35.25" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1465,7 +1447,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="35.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1473,47 +1455,47 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="35.25" customHeight="1">
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="35.25" customHeight="1">
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="35.25" customHeight="1">
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="35.25" customHeight="1">
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="35.25" customHeight="1">
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="35.25" customHeight="1">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="35.25" customHeight="1">
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="35.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1521,12 +1503,12 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="35.25" customHeight="1">
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="35.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1534,7 +1516,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="35.25" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1542,7 +1524,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="35.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1550,7 +1532,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="35.25" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1558,7 +1540,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="35.25" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1566,7 +1548,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="35.25" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1574,7 +1556,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="35.25" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1582,7 +1564,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="35.25" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1590,7 +1572,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="35.25" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1598,7 +1580,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="35.25" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1606,7 +1588,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="35.25" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1614,7 +1596,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="35.25" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1622,7 +1604,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="35.25" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1630,7 +1612,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="35.25" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1638,7 +1620,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="35.25" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1646,7 +1628,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="35.25" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1654,7 +1636,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="35.25" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1662,7 +1644,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="35.25" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1670,7 +1652,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="35.25" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1678,7 +1660,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="35.25" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1686,7 +1668,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="35.25" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1694,7 +1676,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="35.25" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1702,7 +1684,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="35.25" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1710,7 +1692,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="35.25" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1718,7 +1700,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="35.25" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1726,7 +1708,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="35.25" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1734,7 +1716,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="35.25" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1742,7 +1724,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="35.25" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1750,7 +1732,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="35.25" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1758,7 +1740,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="35.25" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1766,7 +1748,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="35.25" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1774,7 +1756,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="35.25" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1782,7 +1764,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="35.25" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1790,7 +1772,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="35.25" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1798,7 +1780,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="35.25" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1806,7 +1788,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="35.25" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1814,7 +1796,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="35.25" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1822,7 +1804,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="35.25" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1830,7 +1812,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="35.25" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1838,7 +1820,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="35.25" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1846,7 +1828,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="35.25" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1854,7 +1836,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="35.25" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1862,7 +1844,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="35.25" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1870,7 +1852,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="35.25" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1878,7 +1860,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="35.25" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1886,7 +1868,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="35.25" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1894,7 +1876,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="35.25" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1902,7 +1884,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="35.25" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1910,7 +1892,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="35.25" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1918,7 +1900,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="35.25" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1926,7 +1908,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="35.25" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1934,7 +1916,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="35.25" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1942,7 +1924,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="35.25" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1950,7 +1932,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="35.25" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1958,7 +1940,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="35.25" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -1966,7 +1948,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="35.25" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1974,7 +1956,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="35.25" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1982,7 +1964,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="35.25" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1991,16 +1973,16 @@
       <c r="F78" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B10 B19 B21:B1003" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10 B19 B21:B1003" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2008,24 +1990,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="3" width="11.54"/>
+    <col min="1" max="16384" width="11.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2051,70 +2029,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="32.25" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="F3" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12"/>
+      <c r="F4" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="F5" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="F4" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="F5" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
-      <c r="F7" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -2122,266 +2100,266 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
+      <c r="F9" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75">
       <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12"/>
+      <c r="F12" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="12"/>
+      <c r="F14" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="38.5">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="F12" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="F14" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="F15" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26">
+      <c r="A16" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="F15" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38.5">
+      <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="F18" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="F19" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12"/>
+      <c r="F20" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="F21" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="F22" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="F23" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="F24" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="F25" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="F26" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="F27" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12"/>
+      <c r="F28" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12"/>
+      <c r="F29" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9"/>
+      <c r="F30" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="F18" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="F19" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="F20" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="F21" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="F22" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="F23" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="F24" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="F25" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="F26" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="F27" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="F28" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="F29" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="F30" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25.5">
+      <c r="A32" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="F31" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="37.5">
+      <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="F33" s="11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="37.5">
+      <c r="A34" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="F33" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="11" t="n">
-        <f aca="false">TRUE()</f>
+        <v>34</v>
+      </c>
+      <c r="F34" s="11" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B7 B9:B1034" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B7 B9:B1034" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
